--- a/FurryMine/Assets/Datas/OreTypeTable.xlsx
+++ b/FurryMine/Assets/Datas/OreTypeTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4131590-2477-4D6C-BBB4-7B58F6777098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FDB487-9AAB-4E09-9117-3AB921C09CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{C007921A-D798-4056-98A0-AA7EE66AC61F}"/>
+    <workbookView xWindow="6765" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{C007921A-D798-4056-98A0-AA7EE66AC61F}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/FurryMine/Assets/Datas/OreTypeTable.xlsx
+++ b/FurryMine/Assets/Datas/OreTypeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FDB487-9AAB-4E09-9117-3AB921C09CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED5B786-E513-4CCF-9269-2C758C05EC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{C007921A-D798-4056-98A0-AA7EE66AC61F}"/>
+    <workbookView xWindow="3090" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{C007921A-D798-4056-98A0-AA7EE66AC61F}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,37 @@
   </si>
   <si>
     <t>BaseHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>ProbabilityAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E02020-7AD8-4220-95D6-70F879C985E7}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,7 +476,7 @@
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,8 +489,14 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -471,6 +508,115 @@
       </c>
       <c r="D2" s="1">
         <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <f>SUM(E2:E8)</f>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/FurryMine/Assets/Datas/OreTypeTable.xlsx
+++ b/FurryMine/Assets/Datas/OreTypeTable.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED5B786-E513-4CCF-9269-2C758C05EC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7074A1C6-2327-4D29-B74D-5C6983803B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{C007921A-D798-4056-98A0-AA7EE66AC61F}"/>
+    <workbookView xWindow="3435" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{C007921A-D798-4056-98A0-AA7EE66AC61F}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -504,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>26</v>
@@ -525,10 +525,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <v>49</v>
@@ -542,10 +542,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>68</v>
@@ -559,10 +559,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>83</v>
@@ -579,7 +579,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>93</v>
@@ -593,10 +593,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1">
         <v>98</v>
@@ -610,10 +610,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
